--- a/data/trans_bre/P16A11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Edad-trans_bre.xlsx
@@ -539,7 +539,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/P16A11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16A11-Edad-trans_bre.xlsx
@@ -662,16 +662,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.7951618331167898</v>
+        <v>-0.7914320045143046</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.074850333949319</v>
+        <v>-1.061430808325647</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.807669620408019</v>
+        <v>-2.166972698386785</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
       <c r="H5" s="6" t="inlineStr"/>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.232560186977087</v>
+        <v>1.136818275013063</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.142208537827319</v>
+        <v>1.14591047611904</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>-0.6176638691470704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.462859577146995</v>
+        <v>0.4628595771469949</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>2.148149509465919</v>
@@ -735,7 +735,7 @@
         <v>-0.6474516351128656</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>1.036282924773914</v>
+        <v>1.036282924773913</v>
       </c>
     </row>
     <row r="8">
@@ -746,25 +746,25 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.05389708677511746</v>
+        <v>-0.08369544483961047</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.7700609132310219</v>
+        <v>-0.802455996999501</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.812943011655253</v>
+        <v>-1.788225337876174</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-0.5015082476807873</v>
+        <v>-0.434401811822786</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.6048038020894033</v>
-      </c>
-      <c r="I8" s="6" t="n">
+        <v>-0.6311244217907642</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="n">
         <v>-1</v>
       </c>
-      <c r="J8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
@@ -774,24 +774,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.412017495397615</v>
+        <v>1.415670379924047</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.980052227178681</v>
+        <v>1.80919681037132</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1666226747308963</v>
+        <v>0.330298259376139</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.51775493588993</v>
+        <v>1.6192152324759</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="n">
-        <v>5.367132012598539</v>
-      </c>
-      <c r="I9" s="6" t="n">
-        <v>1.120444198714987</v>
-      </c>
+        <v>3.809765489494166</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
       <c r="J9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
@@ -815,7 +813,7 @@
         <v>-0.8721521254624929</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-1.584308667396863</v>
+        <v>-1.584308667396862</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.597428318974096</v>
@@ -827,7 +825,7 @@
         <v>-0.274356850400071</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.4394059529413469</v>
+        <v>-0.4394059529413468</v>
       </c>
     </row>
     <row r="11">
@@ -838,28 +836,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5072274293967476</v>
+        <v>-0.5971326897505176</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.629416038333517</v>
+        <v>-3.501313905683531</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.864227536433369</v>
+        <v>-2.759772048807234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.530203222791629</v>
+        <v>-3.718319332389185</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1636904618733369</v>
+        <v>-0.1890728778472718</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.6275434700643224</v>
+        <v>-0.6205965227494107</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.6467133878321368</v>
+        <v>-0.6523935784308985</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6890786992596362</v>
+        <v>-0.7103821257790184</v>
       </c>
     </row>
     <row r="12">
@@ -870,28 +868,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.504145157609231</v>
+        <v>3.470938752458736</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6749253959845117</v>
+        <v>0.6684518872688303</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.061569760560131</v>
+        <v>0.6616213380807328</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-0.01987003766915364</v>
+        <v>0.09540884123105396</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.050775260587343</v>
+        <v>1.846567266348169</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2309810817331105</v>
+        <v>0.2112733579938932</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5436534810232354</v>
+        <v>0.3410740746176132</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.0867597115760483</v>
+        <v>0.0742365538469459</v>
       </c>
     </row>
     <row r="13">
@@ -915,7 +913,7 @@
         <v>-4.294806285964054</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-1.867769167438163</v>
+        <v>-1.867769167438158</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1664142236675787</v>
@@ -927,7 +925,7 @@
         <v>-0.3121904799871023</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1329963160362449</v>
+        <v>-0.1329963160362445</v>
       </c>
     </row>
     <row r="14">
@@ -938,28 +936,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-5.70258942626596</v>
+        <v>-6.346310749692129</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.225165842411481</v>
+        <v>-2.38750230415937</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-8.125112247885363</v>
+        <v>-7.73956858298953</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-5.241848648258489</v>
+        <v>-5.136562605850444</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3998413457424793</v>
+        <v>-0.4211942984531373</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1660291155685427</v>
+        <v>-0.1804148815575045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.5126250316464486</v>
+        <v>-0.503419626634295</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3222874856215392</v>
+        <v>-0.316812097638372</v>
       </c>
     </row>
     <row r="15">
@@ -970,28 +968,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.930008114803475</v>
+        <v>1.81498263268074</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.355107631966588</v>
+        <v>5.448836233188755</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.7127923285486958</v>
+        <v>-0.5712767588349672</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.319154194617729</v>
+        <v>1.338061820386191</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1903045815739702</v>
+        <v>0.1797773343899001</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5131742569397639</v>
+        <v>0.5354314838322871</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.05399442087240416</v>
+        <v>-0.04877491418439774</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1115883518522359</v>
+        <v>0.1143462499575896</v>
       </c>
     </row>
     <row r="16">
@@ -1015,7 +1013,7 @@
         <v>7.901495041276157</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.012496975263506</v>
+        <v>-2.0124969752635</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06664584962741815</v>
@@ -1027,7 +1025,7 @@
         <v>0.3542961346123672</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.07256546676436962</v>
+        <v>-0.07256546676436944</v>
       </c>
     </row>
     <row r="17">
@@ -1038,28 +1036,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.787232768250046</v>
+        <v>-4.379310883980125</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.44564577153426</v>
+        <v>-2.328564377684562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.997172984876324</v>
+        <v>2.017191829011289</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.887031278533301</v>
+        <v>-6.221174938954828</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.1156264991100795</v>
+        <v>-0.1362017414358851</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.0641505279828201</v>
+        <v>-0.06303763700393029</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07418958426060947</v>
+        <v>0.07785252263791283</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2188304356734816</v>
+        <v>-0.2007771760299024</v>
       </c>
     </row>
     <row r="18">
@@ -1070,28 +1068,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.131501100487439</v>
+        <v>8.570495872553941</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>11.16902948756718</v>
+        <v>11.37581622625607</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13.56824119705919</v>
+        <v>13.5667386509414</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.293193889220863</v>
+        <v>2.091944961835107</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.338268017307139</v>
+        <v>0.3104884968792532</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3442076841524611</v>
+        <v>0.3430263899939793</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6903640336885618</v>
+        <v>0.6937187452254958</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.0909978838440587</v>
+        <v>0.08713759164018554</v>
       </c>
     </row>
     <row r="19">
@@ -1115,7 +1113,7 @@
         <v>3.319073005028544</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-0.7542997411819463</v>
+        <v>-0.7542997411819519</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1902427888539383</v>
@@ -1127,7 +1125,7 @@
         <v>0.07914094812949904</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.01610222986961517</v>
+        <v>-0.01610222986961529</v>
       </c>
     </row>
     <row r="20">
@@ -1138,28 +1136,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-0.06052905535285525</v>
+        <v>-0.1974496196537395</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-2.050784682486973</v>
+        <v>-1.982668710812559</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-4.190371180959556</v>
+        <v>-4.012037878656701</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-6.05377321344874</v>
+        <v>-6.205387633313421</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.003494814041007681</v>
+        <v>-0.01021744701438849</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.03413462004035576</v>
+        <v>-0.03610153194169014</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.08778362107912926</v>
+        <v>-0.0880232846564746</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.1206382189581194</v>
+        <v>-0.1242398422324309</v>
       </c>
     </row>
     <row r="21">
@@ -1170,28 +1168,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>14.77601130839554</v>
+        <v>14.99024611034214</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.67150766343071</v>
+        <v>14.03207601500942</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>10.72981314931176</v>
+        <v>10.47867330131364</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4.423471587768804</v>
+        <v>5.289406032985715</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.4375076784971507</v>
+        <v>0.4331405194097161</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3340835490129974</v>
+        <v>0.3107323253437684</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2875620095291906</v>
+        <v>0.2761232777974651</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.1015794592257267</v>
+        <v>0.1213963413855991</v>
       </c>
     </row>
     <row r="22">
@@ -1215,7 +1213,7 @@
         <v>2.363255765558281</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>6.955760345294049</v>
+        <v>6.95576034529406</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1968309415796208</v>
@@ -1227,7 +1225,7 @@
         <v>0.0430718724463747</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>0.1209761257096039</v>
+        <v>0.1209761257096041</v>
       </c>
     </row>
     <row r="23">
@@ -1238,28 +1236,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.07732108423877355</v>
+        <v>-0.1597266504586791</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-3.195512523221865</v>
+        <v>-3.277573535296585</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-6.612088576665733</v>
+        <v>-5.602463853912567</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.401289049944208</v>
+        <v>1.624394823940823</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.001032987869694689</v>
+        <v>-0.003836330080508899</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.04858036219629656</v>
+        <v>-0.04990716268649437</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.107658973127619</v>
+        <v>-0.09705951175698262</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>0.02886928725397599</v>
+        <v>0.02616146413679816</v>
       </c>
     </row>
     <row r="24">
@@ -1270,28 +1268,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>18.87616466403008</v>
+        <v>18.36505070797471</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.81848636586143</v>
+        <v>13.38511688705186</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.31647910078275</v>
+        <v>10.1369181599767</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.90925574243839</v>
+        <v>12.53615834939674</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4441191720038909</v>
+        <v>0.4387657995521989</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2615105896296032</v>
+        <v>0.245558748231968</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2044850347896086</v>
+        <v>0.2028248178012613</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2454913964685812</v>
+        <v>0.2328884329801532</v>
       </c>
     </row>
     <row r="25">
@@ -1327,7 +1325,7 @@
         <v>0.197108221746287</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.09307953531244693</v>
+        <v>0.09307953531244695</v>
       </c>
     </row>
     <row r="26">
@@ -1338,28 +1336,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.515875681201578</v>
+        <v>2.281610792608495</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.205022531676767</v>
+        <v>2.282058231024174</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1.238463261933223</v>
+        <v>1.176736085257842</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-0.05471005511551329</v>
+        <v>-0.007899207026100127</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1853294709702893</v>
+        <v>0.1695806009148754</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1258998184908237</v>
+        <v>0.1311567637944032</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.07970337004650908</v>
+        <v>0.07507846193685361</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.002355584869963384</v>
+        <v>-0.0002569321272969095</v>
       </c>
     </row>
     <row r="27">
@@ -1370,28 +1368,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>5.832235486523983</v>
+        <v>5.730516116120869</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.142765579740521</v>
+        <v>6.04058746925743</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.827295983160906</v>
+        <v>4.628311525741204</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>3.258211786552313</v>
+        <v>3.234004141591739</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4945141881415637</v>
+        <v>0.480956934012768</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3930250974992851</v>
+        <v>0.3845389868097857</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3426331930288704</v>
+        <v>0.3264227408758501</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.1815054454862751</v>
+        <v>0.1821816877876441</v>
       </c>
     </row>
     <row r="28">
